--- a/untranslated/downloads/data-excel/3.1.1.xlsx
+++ b/untranslated/downloads/data-excel/3.1.1.xlsx
@@ -738,11 +738,13 @@
   </sheetPr>
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="39.28515625" customWidth="1"/>
+    <col min="1" max="3" width="34.42578125" customWidth="1"/>
     <col min="4" max="14" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -903,7 +905,7 @@
         <v>31.896888425986198</v>
       </c>
       <c r="O5" s="23">
-        <v>24.5</v>
+        <v>28.6</v>
       </c>
       <c r="P5" s="23">
         <v>24.8</v>
@@ -953,7 +955,7 @@
         <v>51.944197091124963</v>
       </c>
       <c r="O6" s="24">
-        <v>20.2</v>
+        <v>33.6</v>
       </c>
       <c r="P6" s="24">
         <v>25.8</v>
@@ -1053,7 +1055,7 @@
         <v>36.95491500369549</v>
       </c>
       <c r="O8" s="24">
-        <v>53.4</v>
+        <v>71.2</v>
       </c>
       <c r="P8" s="24">
         <v>28.4</v>
@@ -1253,7 +1255,7 @@
         <v>22.949465277459037</v>
       </c>
       <c r="O12" s="24">
-        <v>4</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="P12" s="24">
         <v>32.5</v>

--- a/untranslated/downloads/data-excel/3.1.1.xlsx
+++ b/untranslated/downloads/data-excel/3.1.1.xlsx
@@ -736,10 +736,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -748,7 +748,7 @@
     <col min="4" max="14" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="38.25" customHeight="1">
+    <row r="1" spans="1:17" ht="38.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="45">
+    <row r="2" spans="1:17" ht="45">
       <c r="A2" s="11" t="s">
         <v>40</v>
       </c>
@@ -793,7 +793,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="C3" s="36"/>
@@ -810,8 +810,9 @@
       <c r="N3" s="31"/>
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1">
       <c r="A4" s="27" t="s">
         <v>36</v>
       </c>
@@ -860,8 +861,11 @@
       <c r="P4" s="30">
         <v>2019</v>
       </c>
+      <c r="Q4" s="30">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -910,8 +914,11 @@
       <c r="P5" s="23">
         <v>24.8</v>
       </c>
+      <c r="Q5" s="23">
+        <v>38.6</v>
+      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -960,8 +967,11 @@
       <c r="P6" s="24">
         <v>25.8</v>
       </c>
+      <c r="Q6" s="24">
+        <v>42.4</v>
+      </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -1010,8 +1020,11 @@
       <c r="P7" s="24">
         <v>37.200000000000003</v>
       </c>
+      <c r="Q7" s="24">
+        <v>53.2</v>
+      </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -1060,8 +1073,11 @@
       <c r="P8" s="24">
         <v>28.4</v>
       </c>
+      <c r="Q8" s="24">
+        <v>90.6</v>
+      </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -1110,8 +1126,11 @@
       <c r="P9" s="24">
         <v>16.600000000000001</v>
       </c>
+      <c r="Q9" s="24">
+        <v>52.6</v>
+      </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -1160,8 +1179,11 @@
       <c r="P10" s="24">
         <v>25.5</v>
       </c>
+      <c r="Q10" s="24">
+        <v>24.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -1210,8 +1232,11 @@
       <c r="P11" s="24">
         <v>16.600000000000001</v>
       </c>
+      <c r="Q11" s="24">
+        <v>69.099999999999994</v>
+      </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -1260,8 +1285,11 @@
       <c r="P12" s="24">
         <v>32.5</v>
       </c>
+      <c r="Q12" s="24">
+        <v>32.200000000000003</v>
+      </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -1310,8 +1338,11 @@
       <c r="P13" s="24">
         <v>16.899999999999999</v>
       </c>
+      <c r="Q13" s="24">
+        <v>19.100000000000001</v>
+      </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1">
+    <row r="14" spans="1:17" ht="15.75" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1360,8 +1391,11 @@
       <c r="P14" s="22" t="s">
         <v>7</v>
       </c>
+      <c r="Q14" s="22">
+        <v>25.2</v>
+      </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="P15" s="25"/>
     </row>
   </sheetData>

--- a/untranslated/downloads/data-excel/3.1.1.xlsx
+++ b/untranslated/downloads/data-excel/3.1.1.xlsx
@@ -736,10 +736,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -748,7 +748,7 @@
     <col min="4" max="14" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="38.25" customHeight="1">
+    <row r="1" spans="1:18" ht="38.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="45">
+    <row r="2" spans="1:18" ht="45">
       <c r="A2" s="11" t="s">
         <v>40</v>
       </c>
@@ -793,7 +793,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="C3" s="36"/>
@@ -811,8 +811,9 @@
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
       <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="A4" s="27" t="s">
         <v>36</v>
       </c>
@@ -864,8 +865,11 @@
       <c r="Q4" s="30">
         <v>2020</v>
       </c>
+      <c r="R4" s="30">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -917,8 +921,11 @@
       <c r="Q5" s="23">
         <v>38.6</v>
       </c>
+      <c r="R5" s="23">
+        <v>33.299999999999997</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -970,8 +977,11 @@
       <c r="Q6" s="24">
         <v>42.4</v>
       </c>
+      <c r="R6" s="24">
+        <v>38.299999999999997</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -1023,8 +1033,11 @@
       <c r="Q7" s="24">
         <v>53.2</v>
       </c>
+      <c r="R7" s="24">
+        <v>31.7</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Q8" s="24">
         <v>90.6</v>
       </c>
+      <c r="R8" s="24">
+        <v>98.7</v>
+      </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -1129,8 +1145,11 @@
       <c r="Q9" s="24">
         <v>52.6</v>
       </c>
+      <c r="R9" s="24">
+        <v>157.19999999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -1182,8 +1201,11 @@
       <c r="Q10" s="24">
         <v>24.5</v>
       </c>
+      <c r="R10" s="24">
+        <v>24.9</v>
+      </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -1235,8 +1257,11 @@
       <c r="Q11" s="24">
         <v>69.099999999999994</v>
       </c>
+      <c r="R11" s="24">
+        <v>38.4</v>
+      </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -1288,8 +1313,11 @@
       <c r="Q12" s="24">
         <v>32.200000000000003</v>
       </c>
+      <c r="R12" s="24">
+        <v>15.1</v>
+      </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -1341,8 +1369,11 @@
       <c r="Q13" s="24">
         <v>19.100000000000001</v>
       </c>
+      <c r="R13" s="24">
+        <v>14.6</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1394,8 +1425,11 @@
       <c r="Q14" s="22">
         <v>25.2</v>
       </c>
+      <c r="R14" s="22">
+        <v>21.7</v>
+      </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="P15" s="25"/>
     </row>
   </sheetData>

--- a/untranslated/downloads/data-excel/3.1.1.xlsx
+++ b/untranslated/downloads/data-excel/3.1.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -736,10 +736,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -748,7 +748,7 @@
     <col min="4" max="14" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="38.25" customHeight="1">
+    <row r="1" spans="1:19" ht="38.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="45">
+    <row r="2" spans="1:19" ht="45">
       <c r="A2" s="11" t="s">
         <v>40</v>
       </c>
@@ -793,7 +793,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:19" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="C3" s="36"/>
@@ -812,8 +812,9 @@
       <c r="P3" s="33"/>
       <c r="Q3" s="33"/>
       <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1">
       <c r="A4" s="27" t="s">
         <v>36</v>
       </c>
@@ -868,8 +869,11 @@
       <c r="R4" s="30">
         <v>2021</v>
       </c>
+      <c r="S4" s="30">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -924,8 +928,11 @@
       <c r="R5" s="23">
         <v>33.299999999999997</v>
       </c>
+      <c r="S5" s="23">
+        <v>27.292394741221504</v>
+      </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -980,8 +987,11 @@
       <c r="R6" s="24">
         <v>38.299999999999997</v>
       </c>
+      <c r="S6" s="24">
+        <v>36.613942589338023</v>
+      </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -1036,8 +1046,11 @@
       <c r="R7" s="24">
         <v>31.7</v>
       </c>
+      <c r="S7" s="24">
+        <v>14.18691257315127</v>
+      </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -1092,8 +1105,11 @@
       <c r="R8" s="24">
         <v>98.7</v>
       </c>
+      <c r="S8" s="24">
+        <v>55.377118174770182</v>
+      </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -1148,8 +1164,11 @@
       <c r="R9" s="24">
         <v>157.19999999999999</v>
       </c>
+      <c r="S9" s="24">
+        <v>42.247570764681029</v>
+      </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -1204,8 +1223,11 @@
       <c r="R10" s="24">
         <v>24.9</v>
       </c>
+      <c r="S10" s="24">
+        <v>30.18817294468856</v>
+      </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -1260,8 +1282,11 @@
       <c r="R11" s="24">
         <v>38.4</v>
       </c>
+      <c r="S11" s="24">
+        <v>97.03085581214826</v>
+      </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -1316,8 +1341,11 @@
       <c r="R12" s="24">
         <v>15.1</v>
       </c>
+      <c r="S12" s="24">
+        <v>25.2</v>
+      </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -1372,8 +1400,11 @@
       <c r="R13" s="24">
         <v>14.6</v>
       </c>
+      <c r="S13" s="24">
+        <v>21.849963583394029</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1">
+    <row r="14" spans="1:19" ht="15.75" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1428,8 +1459,11 @@
       <c r="R14" s="22">
         <v>21.7</v>
       </c>
+      <c r="S14" s="22" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="P15" s="25"/>
     </row>
   </sheetData>

--- a/untranslated/downloads/data-excel/3.1.1.xlsx
+++ b/untranslated/downloads/data-excel/3.1.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -736,11 +736,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -748,7 +746,7 @@
     <col min="4" max="14" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="38.25" customHeight="1">
+    <row r="1" spans="1:20" ht="39.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -770,7 +768,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="45">
+    <row r="2" spans="1:20" ht="45">
       <c r="A2" s="11" t="s">
         <v>40</v>
       </c>
@@ -793,7 +791,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:20" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="C3" s="36"/>
@@ -813,8 +811,9 @@
       <c r="Q3" s="33"/>
       <c r="R3" s="33"/>
       <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1">
       <c r="A4" s="27" t="s">
         <v>36</v>
       </c>
@@ -872,8 +871,11 @@
       <c r="S4" s="30">
         <v>2022</v>
       </c>
+      <c r="T4" s="30">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -931,8 +933,11 @@
       <c r="S5" s="23">
         <v>27.292394741221504</v>
       </c>
+      <c r="T5" s="23">
+        <v>22.606300992622124</v>
+      </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -990,8 +995,11 @@
       <c r="S6" s="24">
         <v>36.613942589338023</v>
       </c>
+      <c r="T6" s="24">
+        <v>13.621194578764559</v>
+      </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -1049,8 +1057,11 @@
       <c r="S7" s="24">
         <v>14.18691257315127</v>
       </c>
+      <c r="T7" s="24">
+        <v>38.913029379337182</v>
+      </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -1108,8 +1119,11 @@
       <c r="S8" s="24">
         <v>55.377118174770182</v>
       </c>
+      <c r="T8" s="24">
+        <v>19.215987701767872</v>
+      </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -1167,8 +1181,11 @@
       <c r="S9" s="24">
         <v>42.247570764681029</v>
       </c>
+      <c r="T9" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="S10" s="24">
         <v>30.18817294468856</v>
       </c>
+      <c r="T10" s="24">
+        <v>19.9288256227758</v>
+      </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -1285,8 +1305,11 @@
       <c r="S11" s="24">
         <v>97.03085581214826</v>
       </c>
+      <c r="T11" s="24">
+        <v>48.820179007323027</v>
+      </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -1344,8 +1367,11 @@
       <c r="S12" s="24">
         <v>25.2</v>
       </c>
+      <c r="T12" s="24">
+        <v>18.458698661744346</v>
+      </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -1403,8 +1429,11 @@
       <c r="S13" s="24">
         <v>21.849963583394029</v>
       </c>
+      <c r="T13" s="24">
+        <v>7.704160246533128</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" thickBot="1">
+    <row r="14" spans="1:20" ht="15.75" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1462,8 +1491,11 @@
       <c r="S14" s="22" t="s">
         <v>7</v>
       </c>
+      <c r="T14" s="22">
+        <v>29.197080291970806</v>
+      </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="P15" s="25"/>
     </row>
   </sheetData>
